--- a/Morrill_Act_of_1862_Indigenous_Land_Parcels_Database/Unis_Remaining_Acreage_Summaries_8_17_20.xlsx
+++ b/Morrill_Act_of_1862_Indigenous_Land_Parcels_Database/Unis_Remaining_Acreage_Summaries_8_17_20.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>Unis_Remaining_Acreage_Summaries_8_17_20</t>
   </si>
@@ -275,6 +275,21 @@
   </si>
   <si>
     <t>Utah Trust Lands Administration</t>
+  </si>
+  <si>
+    <t>Washington State University</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Pullman</t>
+  </si>
+  <si>
+    <t>DNR still administers Morrill Act lands as Agricultural School Trust lands. The trust started with 90,000 acres of beneficial lands, and now there are 71,147 acres of Agricultural School Trust lands. In Fiscal Year 2019 (July 1, 2018-June 30, 2019), DNR generated $4.50 million in revenue for the trust, with $4.25 million of that revenue coming from timber harvests. In Fiscal Year 2018 (July 1, 2017-June 30, 2018), DNR generated $4.88 million in revenue for the trust, with $4.52 million of that revenue coming from timber harvests.</t>
+  </si>
+  <si>
+    <t>Washington State Department of Natural Resources</t>
   </si>
   <si>
     <t>University of Wisconsin</t>
@@ -340,7 +355,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,8 +368,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -382,10 +403,70 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -413,7 +494,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -426,34 +507,46 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,6 +569,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1537,13 +1631,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N17"/>
+  <dimension ref="A2:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.67188" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.67188" style="1" customWidth="1"/>
@@ -1626,660 +1720,704 @@
       <c r="A3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>143684</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>450000</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="I3" t="s" s="4">
+      <c r="I3" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="J3" t="s" s="4">
+      <c r="J3" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="K3" t="s" s="4">
+      <c r="K3" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="L3" t="s" s="4">
+      <c r="L3" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="M3" t="s" s="4">
+      <c r="M3" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="N3" t="s" s="4">
+      <c r="N3" t="s" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="9">
         <v>22</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="12">
         <v>150525</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="13">
         <v>732233</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="14">
         <v>0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="14">
         <v>0</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="14">
         <v>441.6</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="13">
         <v>1947</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="15">
         <v>0</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="16">
         <v>0.003</v>
       </c>
-      <c r="M4" t="s" s="7">
+      <c r="M4" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="N4" t="s" s="7">
+      <c r="N4" t="s" s="11">
         <v>26</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <v>89321</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="13">
         <v>185956</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="12">
         <v>19130</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="13">
         <v>77526</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="12">
         <v>42572</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="13">
         <v>662596</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="15">
         <v>0.21</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="15">
         <v>0.48</v>
       </c>
-      <c r="M5" t="s" s="7">
+      <c r="M5" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="N5" t="s" s="7">
+      <c r="N5" t="s" s="11">
         <v>31</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="A6" t="s" s="9">
         <v>32</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" t="s" s="10">
         <v>33</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" t="s" s="11">
         <v>34</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="12">
         <v>87445</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="13">
         <v>129615</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="12">
         <v>33527</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="13">
         <v>358258</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="12">
         <v>70000</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="13">
         <v>1188</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="15">
         <v>0.38</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="15">
         <v>0.8</v>
       </c>
-      <c r="M6" t="s" s="7">
+      <c r="M6" t="s" s="11">
         <v>35</v>
       </c>
-      <c r="N6" t="s" s="7">
+      <c r="N6" t="s" s="11">
         <v>36</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="A7" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" t="s" s="10">
         <v>38</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" t="s" s="11">
         <v>39</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="12">
         <v>87290</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="13">
         <v>491746</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="14">
         <v>0</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="14">
         <v>0</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="12">
         <v>6080</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="13">
         <v>163344.53</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="15">
         <v>0</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="15">
         <v>0.07000000000000001</v>
       </c>
-      <c r="M7" t="s" s="7">
+      <c r="M7" t="s" s="11">
         <v>40</v>
       </c>
-      <c r="N7" t="s" s="7">
+      <c r="N7" t="s" s="11">
         <v>37</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="A8" t="s" s="9">
         <v>41</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" t="s" s="11">
         <v>43</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="12">
         <v>94631</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="13">
         <v>579430</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="14">
         <v>0</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="14">
         <v>0</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="14">
         <v>240</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="14">
         <v>0</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="15">
         <v>0</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="15">
         <v>0</v>
       </c>
-      <c r="M8" t="s" s="7">
+      <c r="M8" t="s" s="11">
         <v>44</v>
       </c>
-      <c r="N8" t="s" s="7">
+      <c r="N8" t="s" s="11">
         <v>45</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="A9" t="s" s="9">
         <v>46</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" t="s" s="10">
         <v>47</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" t="s" s="11">
         <v>48</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="D9" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="12">
         <v>270613</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="13">
         <v>363441</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="12">
         <v>14787</v>
       </c>
-      <c r="H9" t="s" s="7">
+      <c r="H9" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="14">
         <v>0</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="14">
         <v>0</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="15">
         <v>0.05</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="15">
         <v>0</v>
       </c>
-      <c r="M9" t="s" s="7">
+      <c r="M9" t="s" s="11">
         <v>49</v>
       </c>
-      <c r="N9" t="s" s="7">
+      <c r="N9" t="s" s="11">
         <v>46</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="A10" t="s" s="9">
         <v>50</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" t="s" s="10">
         <v>51</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" t="s" s="11">
         <v>52</v>
       </c>
-      <c r="D10" t="s" s="7">
+      <c r="D10" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="12">
         <v>140385</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="13">
         <v>533149</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="12">
         <v>63474</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="13">
         <v>623941</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="12">
         <v>77929</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="13">
         <v>6670</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="15">
         <v>0.45</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="15">
         <v>0.5600000000000001</v>
       </c>
-      <c r="M10" t="s" s="7">
+      <c r="M10" t="s" s="11">
         <v>53</v>
       </c>
-      <c r="N10" t="s" s="7">
+      <c r="N10" t="s" s="11">
         <v>54</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="A11" t="s" s="9">
         <v>55</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" t="s" s="10">
         <v>56</v>
       </c>
-      <c r="C11" t="s" s="7">
+      <c r="C11" t="s" s="11">
         <v>57</v>
       </c>
-      <c r="D11" t="s" s="7">
+      <c r="D11" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="12">
         <v>130471</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="13">
         <v>455924</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="12">
         <v>15117</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="13">
         <v>308142</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="12">
         <v>66109</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="13">
         <v>2874800</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="15">
         <v>0.12</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="15">
         <v>0.51</v>
       </c>
-      <c r="M11" t="s" s="7">
+      <c r="M11" t="s" s="11">
         <v>58</v>
       </c>
-      <c r="N11" t="s" s="7">
+      <c r="N11" t="s" s="11">
         <v>59</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="A12" t="s" s="9">
         <v>60</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" t="s" s="10">
         <v>61</v>
       </c>
-      <c r="C12" t="s" s="7">
+      <c r="C12" t="s" s="11">
         <v>62</v>
       </c>
-      <c r="D12" t="s" s="7">
+      <c r="D12" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="12">
         <v>89920</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="13">
         <v>560072</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="12">
         <v>6173</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="13">
         <v>426618.61</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="14">
         <v>0</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="14">
         <v>0</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="15">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="15">
         <v>0</v>
       </c>
-      <c r="M12" t="s" s="7">
+      <c r="M12" t="s" s="11">
         <v>63</v>
       </c>
-      <c r="N12" t="s" s="7">
+      <c r="N12" t="s" s="11">
         <v>64</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="A13" t="s" s="9">
         <v>65</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" t="s" s="10">
         <v>66</v>
       </c>
-      <c r="C13" t="s" s="7">
+      <c r="C13" t="s" s="11">
         <v>67</v>
       </c>
-      <c r="D13" t="s" s="7">
+      <c r="D13" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="12">
         <v>248964</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="13">
         <v>241909</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="12">
         <v>194571</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="13">
         <v>1217672.49</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="12">
         <v>254200</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="13">
         <v>353587.32</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="15">
         <v>0.78</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="15">
         <v>1.02</v>
       </c>
-      <c r="M13" t="s" s="7">
+      <c r="M13" t="s" s="11">
         <v>68</v>
       </c>
-      <c r="N13" t="s" s="7">
+      <c r="N13" t="s" s="11">
         <v>69</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="A14" t="s" s="9">
         <v>70</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" t="s" s="10">
         <v>71</v>
       </c>
-      <c r="C14" t="s" s="7">
+      <c r="C14" t="s" s="11">
         <v>72</v>
       </c>
-      <c r="D14" t="s" s="7">
+      <c r="D14" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="12">
         <v>159832</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="13">
         <v>128804</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="17">
         <v>36617.39</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="13">
         <v>608582.8</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="12">
         <v>160000</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="13">
         <v>27364.85</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="15">
         <v>0.23</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="15">
         <v>1</v>
       </c>
-      <c r="M14" t="s" s="7">
+      <c r="M14" t="s" s="11">
         <v>73</v>
       </c>
-      <c r="N14" t="s" s="7">
+      <c r="N14" t="s" s="11">
         <v>74</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="A15" t="s" s="9">
         <v>75</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" t="s" s="11">
         <v>77</v>
       </c>
-      <c r="D15" t="s" s="7">
+      <c r="D15" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="12">
         <v>198837</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="13">
         <v>194136</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="12">
         <v>27577</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="13">
         <v>83769</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="12">
         <v>51724</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="13">
         <v>943843</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="15">
         <v>0.14</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="15">
         <v>0.26</v>
       </c>
-      <c r="M15" t="s" s="7">
+      <c r="M15" t="s" s="11">
         <v>78</v>
       </c>
-      <c r="N15" t="s" s="7">
+      <c r="N15" t="s" s="11">
         <v>79</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="A16" t="s" s="9">
         <v>80</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" t="s" s="10">
         <v>81</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="C16" t="s" s="11">
         <v>82</v>
       </c>
-      <c r="D16" t="s" s="7">
+      <c r="D16" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E16" s="8">
-        <v>235690</v>
-      </c>
-      <c r="F16" s="9">
-        <v>303594</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
-        <v>6400</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="M16" t="s" s="7">
+      <c r="E16" s="12">
+        <v>90081</v>
+      </c>
+      <c r="F16" s="13">
+        <v>247608</v>
+      </c>
+      <c r="G16" s="12">
+        <v>71147</v>
+      </c>
+      <c r="H16" s="13">
+        <v>4250000</v>
+      </c>
+      <c r="I16" s="12">
+        <v>86657</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1936</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0.96</v>
+      </c>
+      <c r="M16" t="s" s="11">
         <v>83</v>
       </c>
-      <c r="N16" t="s" s="7">
+      <c r="N16" t="s" s="11">
         <v>84</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="A17" t="s" s="9">
         <v>85</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" t="s" s="10">
         <v>86</v>
       </c>
-      <c r="C17" t="s" s="7">
+      <c r="C17" t="s" s="11">
         <v>87</v>
       </c>
-      <c r="D17" t="s" s="7">
+      <c r="D17" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="12">
+        <v>235690</v>
+      </c>
+      <c r="F17" s="13">
+        <v>303594</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>6400</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="M17" t="s" s="11">
+        <v>88</v>
+      </c>
+      <c r="N17" t="s" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="9">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s" s="11">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="E18" s="12">
         <v>89849</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="13">
         <v>73355</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="12">
         <v>71066</v>
       </c>
-      <c r="H17" t="s" s="7">
+      <c r="H18" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="I17" t="s" s="7">
+      <c r="I18" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="J17" t="s" s="7">
+      <c r="J18" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K18" s="15">
         <v>0.79</v>
       </c>
-      <c r="L17" t="s" s="7">
+      <c r="L18" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="M17" t="s" s="7">
-        <v>88</v>
-      </c>
-      <c r="N17" t="s" s="7">
-        <v>89</v>
+      <c r="M18" t="s" s="11">
+        <v>93</v>
+      </c>
+      <c r="N18" t="s" s="11">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
